--- a/test/core/importExport/OpenXML-ImportExcel.xlsx
+++ b/test/core/importExport/OpenXML-ImportExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dynamo\test\core\importExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424542BB-787B-4586-B2C9-0EB0858111AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3A0333-7EAF-4EE6-B1A6-097383FCEF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABEFE787-B9C5-4DB5-A660-43F37F78A2BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABEFE787-B9C5-4DB5-A660-43F37F78A2BB}"/>
   </bookViews>
   <sheets>
     <sheet name="worksheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>0111111_0000</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B6EC7F-3828-461E-A387-C14595C8548E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,6 +411,11 @@
         <v>0111111_0000</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
